--- a/04-ASDR/03-Tablas-de-Vida.xlsx
+++ b/04-ASDR/03-Tablas-de-Vida.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heri\GitHub\.Semester\Demography\04-ASDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A914AE9B-4016-4905-B57F-DBD235CD186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48BA962-AB92-4872-91D7-A8480E57463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{FB18554B-1C1E-402D-9706-EA4E8C0B22FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="3" xr2:uid="{FB18554B-1C1E-402D-9706-EA4E8C0B22FB}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO 2019ASDRMex" sheetId="1" r:id="rId1"/>
     <sheet name="LT Mex 2019" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
   <si>
     <t xml:space="preserve">Global Health Observatory data repository (WHO) </t>
   </si>
@@ -214,16 +216,23 @@
   </si>
   <si>
     <t>Tasas de Mortalidad en la cohorte</t>
+  </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>mueren en promedio aquí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -374,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -481,7 +490,16 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,7 +522,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -894,7 +912,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1291,7 +1309,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2271,7 +2289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2593,7 +2611,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="16.453125" customWidth="1"/>
@@ -2964,11 +2982,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF17DCF-8C06-416A-B0C2-1C88181CD0F3}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P27" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="AD41" sqref="AD41"/>
+    <sheetView topLeftCell="C8" zoomScale="208" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="6" max="6" width="26.453125" bestFit="1" customWidth="1"/>
@@ -3093,7 +3111,7 @@
         <v>1.3470714955868135E-2</v>
       </c>
       <c r="K3" s="35">
-        <f>(I4*E3)+(J3*G3)</f>
+        <f t="shared" ref="K3:K20" si="0">(I4*E3)+(J3*G3)</f>
         <v>0.98762860711786082</v>
       </c>
       <c r="L3" s="35">
@@ -3101,7 +3119,7 @@
         <v>73.347228925715143</v>
       </c>
       <c r="M3" s="10">
-        <f>L3/I3</f>
+        <f t="shared" ref="M3:M21" si="1">L3/I3</f>
         <v>73.347228925715143</v>
       </c>
       <c r="O3">
@@ -3134,12 +3152,12 @@
       <c r="F4" s="3">
         <v>5.3086300000000002E-4</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="13">
         <f>1.651-2.816*F4</f>
         <v>1.6495050897920001</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H21" si="0">(E4*F4)/(1+(E4-G4)*F4)</f>
+        <f t="shared" ref="H4:H20" si="2">(E4*F4)/(1+(E4-G4)*F4)</f>
         <v>2.1208056782295566E-3</v>
       </c>
       <c r="I4" s="35">
@@ -3147,11 +3165,11 @@
         <v>0.98652928504413184</v>
       </c>
       <c r="J4" s="35">
-        <f>H4*I4</f>
+        <f t="shared" ref="J4:J21" si="3">H4*I4</f>
         <v>2.0922369094613395E-3</v>
       </c>
       <c r="K4" s="35">
-        <f>(I5*E4)+(J4*G4)</f>
+        <f t="shared" si="0"/>
         <v>3.941199347969889</v>
       </c>
       <c r="L4" s="35">
@@ -3159,15 +3177,15 @@
         <v>72.359600318597288</v>
       </c>
       <c r="M4" s="10">
-        <f>L4/I4</f>
+        <f t="shared" si="1"/>
         <v>73.347645544410085</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O21" si="1">LOG10(H4)</f>
+        <f t="shared" ref="O4:O21" si="4">LOG10(H4)</f>
         <v>-2.6734991224965481</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q21" si="2">H4/H26</f>
+        <f t="shared" ref="Q4:Q21" si="5">H4/H26</f>
         <v>1.1375932206891757</v>
       </c>
       <c r="S4" t="s">
@@ -3176,7 +3194,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
-        <f t="shared" ref="A5:A20" si="3">D5+G5</f>
+        <f t="shared" ref="A5:A20" si="6">D5+G5</f>
         <v>7.5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3197,19 +3215,19 @@
         <v>2.5</v>
       </c>
       <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1618496603617941E-3</v>
+      </c>
+      <c r="I5" s="35">
+        <f t="shared" ref="I5:I21" si="7">I4-J4</f>
+        <v>0.98443704813467048</v>
+      </c>
+      <c r="J5" s="35">
+        <f t="shared" si="3"/>
+        <v>1.143767850022834E-3</v>
+      </c>
+      <c r="K5" s="35">
         <f t="shared" si="0"/>
-        <v>1.1618496603617941E-3</v>
-      </c>
-      <c r="I5" s="35">
-        <f t="shared" ref="I5:I21" si="4">I4-J4</f>
-        <v>0.98443704813467048</v>
-      </c>
-      <c r="J5" s="35">
-        <f>H5*I5</f>
-        <v>1.143767850022834E-3</v>
-      </c>
-      <c r="K5" s="35">
-        <f>(I6*E5)+(J5*G5)</f>
         <v>4.9193258210482957</v>
       </c>
       <c r="L5" s="35">
@@ -3217,15 +3235,15 @@
         <v>68.418400970627388</v>
       </c>
       <c r="M5" s="10">
-        <f>L5/I5</f>
+        <f t="shared" si="1"/>
         <v>69.500026538281787</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.934850064630171</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1376148204207115</v>
       </c>
       <c r="S5" t="s">
@@ -3234,7 +3252,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3251,23 +3269,23 @@
         <v>3.31956E-4</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:G21" si="5">(D7-D6)/2</f>
+        <f t="shared" ref="G6:G20" si="8">(D7-D6)/2</f>
         <v>2.5</v>
       </c>
       <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6584037073473093E-3</v>
+      </c>
+      <c r="I6" s="35">
+        <f t="shared" si="7"/>
+        <v>0.98329328028464769</v>
+      </c>
+      <c r="J6" s="35">
+        <f t="shared" si="3"/>
+        <v>1.6306972214337567E-3</v>
+      </c>
+      <c r="K6" s="35">
         <f t="shared" si="0"/>
-        <v>1.6584037073473093E-3</v>
-      </c>
-      <c r="I6" s="35">
-        <f t="shared" si="4"/>
-        <v>0.98329328028464769</v>
-      </c>
-      <c r="J6" s="35">
-        <f>H6*I6</f>
-        <v>1.6306972214337567E-3</v>
-      </c>
-      <c r="K6" s="35">
-        <f>(I7*E6)+(J6*G6)</f>
         <v>4.912389658369654</v>
       </c>
       <c r="L6" s="35">
@@ -3275,15 +3293,15 @@
         <v>63.49907514957912</v>
       </c>
       <c r="M6" s="10">
-        <f>L6/I6</f>
+        <f t="shared" si="1"/>
         <v>64.57796104453918</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.7803097400515089</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3639474242700382</v>
       </c>
       <c r="S6" t="s">
@@ -3292,7 +3310,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3309,23 +3327,23 @@
         <v>1.0074070000000001E-3</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0243810085034172E-3</v>
+      </c>
+      <c r="I7" s="35">
+        <f t="shared" si="7"/>
+        <v>0.98166258306321397</v>
+      </c>
+      <c r="J7" s="35">
+        <f t="shared" si="3"/>
+        <v>4.9322468391012203E-3</v>
+      </c>
+      <c r="K7" s="35">
         <f t="shared" si="0"/>
-        <v>5.0243810085034172E-3</v>
-      </c>
-      <c r="I7" s="35">
-        <f t="shared" si="4"/>
-        <v>0.98166258306321397</v>
-      </c>
-      <c r="J7" s="35">
-        <f>H7*I7</f>
-        <v>4.9322468391012203E-3</v>
-      </c>
-      <c r="K7" s="35">
-        <f>(I8*E7)+(J7*G7)</f>
         <v>4.8959822982183168</v>
       </c>
       <c r="L7" s="35">
@@ -3333,21 +3351,21 @@
         <v>58.586685491209458</v>
       </c>
       <c r="M7" s="10">
-        <f>L7/I7</f>
+        <f t="shared" si="1"/>
         <v>59.681082382088491</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.2989174346338213</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.499967707207412</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22.5</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3364,23 +3382,23 @@
         <v>1.7129650000000001E-3</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5283032873982537E-3</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="7"/>
+        <v>0.97673033622411276</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="3"/>
+        <v>8.3298525373217032E-3</v>
+      </c>
+      <c r="K8" s="35">
         <f t="shared" si="0"/>
-        <v>8.5283032873982537E-3</v>
-      </c>
-      <c r="I8" s="35">
-        <f t="shared" si="4"/>
-        <v>0.97673033622411276</v>
-      </c>
-      <c r="J8" s="35">
-        <f>H8*I8</f>
-        <v>8.3298525373217032E-3</v>
-      </c>
-      <c r="K8" s="35">
-        <f>(I9*E8)+(J8*G8)</f>
         <v>4.8628270497772599</v>
       </c>
       <c r="L8" s="35">
@@ -3388,21 +3406,21 @@
         <v>53.690703192991144</v>
       </c>
       <c r="M8" s="10">
-        <f>L8/I8</f>
+        <f t="shared" si="1"/>
         <v>54.969832718159481</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.0691373634650883</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.0655132632016766</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3419,23 +3437,23 @@
         <v>2.1317929999999999E-3</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0602459378286459E-2</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="7"/>
+        <v>0.9684004836867911</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="3"/>
+        <v>1.0267426790202162E-2</v>
+      </c>
+      <c r="K9" s="35">
         <f t="shared" si="0"/>
-        <v>1.0602459378286459E-2</v>
-      </c>
-      <c r="I9" s="35">
-        <f t="shared" si="4"/>
-        <v>0.9684004836867911</v>
-      </c>
-      <c r="J9" s="35">
-        <f>H9*I9</f>
-        <v>1.0267426790202162E-2</v>
-      </c>
-      <c r="K9" s="35">
-        <f>(I10*E9)+(J9*G9)</f>
         <v>4.8163338514584497</v>
       </c>
       <c r="L9" s="35">
@@ -3443,21 +3461,21 @@
         <v>48.827876143213885</v>
       </c>
       <c r="M9" s="10">
-        <f>L9/I9</f>
+        <f t="shared" si="1"/>
         <v>50.421160424581366</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.9745933827984421</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.2071746093542499</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32.5</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3474,23 +3492,23 @@
         <v>2.4450370000000002E-3</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2150911429925275E-2</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="7"/>
+        <v>0.9581330568965889</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="3"/>
+        <v>1.1642189912434006E-2</v>
+      </c>
+      <c r="K10" s="35">
         <f t="shared" si="0"/>
-        <v>1.2150911429925275E-2</v>
-      </c>
-      <c r="I10" s="35">
-        <f t="shared" si="4"/>
-        <v>0.9581330568965889</v>
-      </c>
-      <c r="J10" s="35">
-        <f>H10*I10</f>
-        <v>1.1642189912434006E-2</v>
-      </c>
-      <c r="K10" s="35">
-        <f>(I11*E10)+(J10*G10)</f>
         <v>4.7615598097018594</v>
       </c>
       <c r="L10" s="35">
@@ -3498,21 +3516,21 @@
         <v>44.011542291755433</v>
       </c>
       <c r="M10" s="10">
-        <f>L10/I10</f>
+        <f t="shared" si="1"/>
         <v>45.934687228420707</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.9153911447700795</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.1199132945725583</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37.5</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3529,23 +3547,23 @@
         <v>3.0462670000000001E-3</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5116214933210135E-2</v>
+      </c>
+      <c r="I11" s="35">
+        <f t="shared" si="7"/>
+        <v>0.94649086698415485</v>
+      </c>
+      <c r="J11" s="35">
+        <f t="shared" si="3"/>
+        <v>1.4307359377652889E-2</v>
+      </c>
+      <c r="K11" s="35">
         <f t="shared" si="0"/>
-        <v>1.5116214933210135E-2</v>
-      </c>
-      <c r="I11" s="35">
-        <f t="shared" si="4"/>
-        <v>0.94649086698415485</v>
-      </c>
-      <c r="J11" s="35">
-        <f>H11*I11</f>
-        <v>1.4307359377652889E-2</v>
-      </c>
-      <c r="K11" s="35">
-        <f>(I12*E11)+(J11*G11)</f>
         <v>4.6966859364766416</v>
       </c>
       <c r="L11" s="35">
@@ -3553,21 +3571,21 @@
         <v>39.249982482053575</v>
       </c>
       <c r="M11" s="10">
-        <f>L11/I11</f>
+        <f t="shared" si="1"/>
         <v>41.468950046097653</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.8205569415999876</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.7002898184402992</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42.5</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3584,23 +3602,23 @@
         <v>4.0926280000000001E-3</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0255890439060426E-2</v>
+      </c>
+      <c r="I12" s="35">
+        <f t="shared" si="7"/>
+        <v>0.93218350760650193</v>
+      </c>
+      <c r="J12" s="35">
+        <f t="shared" si="3"/>
+        <v>1.8882206999176355E-2</v>
+      </c>
+      <c r="K12" s="35">
         <f t="shared" si="0"/>
-        <v>2.0255890439060426E-2</v>
-      </c>
-      <c r="I12" s="35">
-        <f t="shared" si="4"/>
-        <v>0.93218350760650193</v>
-      </c>
-      <c r="J12" s="35">
-        <f>H12*I12</f>
-        <v>1.8882206999176355E-2</v>
-      </c>
-      <c r="K12" s="35">
-        <f>(I13*E12)+(J12*G12)</f>
         <v>4.6137120205345692</v>
       </c>
       <c r="L12" s="35">
@@ -3608,21 +3626,21 @@
         <v>34.553296545576927</v>
       </c>
       <c r="M12" s="10">
-        <f>L12/I12</f>
+        <f t="shared" si="1"/>
         <v>37.067054140763389</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.6934486606872339</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.4164014962694211</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3639,23 +3657,23 @@
         <v>5.1841989999999996E-3</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>2.558934436631375E-2</v>
+      </c>
+      <c r="I13" s="35">
+        <f t="shared" si="7"/>
+        <v>0.91330130060732562</v>
+      </c>
+      <c r="J13" s="35">
+        <f t="shared" si="3"/>
+        <v>2.3370781491443088E-2</v>
+      </c>
+      <c r="K13" s="35">
         <f t="shared" si="0"/>
-        <v>2.558934436631375E-2</v>
-      </c>
-      <c r="I13" s="35">
-        <f t="shared" si="4"/>
-        <v>0.91330130060732562</v>
-      </c>
-      <c r="J13" s="35">
-        <f>H13*I13</f>
-        <v>2.3370781491443088E-2</v>
-      </c>
-      <c r="K13" s="35">
-        <f>(I14*E13)+(J13*G13)</f>
         <v>4.5080795493080208</v>
       </c>
       <c r="L13" s="35">
@@ -3663,21 +3681,21 @@
         <v>29.939584525042356</v>
       </c>
       <c r="M13" s="10">
-        <f>L13/I13</f>
+        <f t="shared" si="1"/>
         <v>32.781716729334754</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.5919408411835354</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0970095665414399</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3694,23 +3712,23 @@
         <v>7.448423E-3</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6561304840293858E-2</v>
+      </c>
+      <c r="I14" s="35">
+        <f t="shared" si="7"/>
+        <v>0.8899305191158825</v>
+      </c>
+      <c r="J14" s="35">
+        <f t="shared" si="3"/>
+        <v>3.2537020996076742E-2</v>
+      </c>
+      <c r="K14" s="35">
         <f t="shared" si="0"/>
-        <v>3.6561304840293858E-2</v>
-      </c>
-      <c r="I14" s="35">
-        <f t="shared" si="4"/>
-        <v>0.8899305191158825</v>
-      </c>
-      <c r="J14" s="35">
-        <f>H14*I14</f>
-        <v>3.2537020996076742E-2</v>
-      </c>
-      <c r="K14" s="35">
-        <f>(I15*E14)+(J14*G14)</f>
         <v>4.3683100430892203</v>
       </c>
       <c r="L14" s="35">
@@ -3718,21 +3736,21 @@
         <v>25.431504975734335</v>
       </c>
       <c r="M14" s="10">
-        <f>L14/I14</f>
+        <f t="shared" si="1"/>
         <v>28.576955649301386</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.4369783130796989</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8345510345731384</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3749,23 +3767,23 @@
         <v>1.0614808999999999E-2</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>5.170202714242584E-2</v>
+      </c>
+      <c r="I15" s="35">
+        <f t="shared" si="7"/>
+        <v>0.85739349811980581</v>
+      </c>
+      <c r="J15" s="35">
+        <f t="shared" si="3"/>
+        <v>4.432898191152964E-2</v>
+      </c>
+      <c r="K15" s="35">
         <f t="shared" si="0"/>
-        <v>5.170202714242584E-2</v>
-      </c>
-      <c r="I15" s="35">
-        <f t="shared" si="4"/>
-        <v>0.85739349811980581</v>
-      </c>
-      <c r="J15" s="35">
-        <f>H15*I15</f>
-        <v>4.432898191152964E-2</v>
-      </c>
-      <c r="K15" s="35">
-        <f>(I16*E15)+(J15*G15)</f>
         <v>4.1761450358202046</v>
       </c>
       <c r="L15" s="35">
@@ -3773,21 +3791,21 @@
         <v>21.063194932645114</v>
       </c>
       <c r="M15" s="10">
-        <f>L15/I15</f>
+        <f t="shared" si="1"/>
         <v>24.566543808455496</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.2864924286756829</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6619113809591897</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3804,23 +3822,23 @@
         <v>1.4931748E-2</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1972068042380793E-2</v>
+      </c>
+      <c r="I16" s="35">
+        <f t="shared" si="7"/>
+        <v>0.81306451620827613</v>
+      </c>
+      <c r="J16" s="35">
+        <f t="shared" si="3"/>
+        <v>5.8517934683387472E-2</v>
+      </c>
+      <c r="K16" s="35">
         <f t="shared" si="0"/>
-        <v>7.1972068042380793E-2</v>
-      </c>
-      <c r="I16" s="35">
-        <f t="shared" si="4"/>
-        <v>0.81306451620827613</v>
-      </c>
-      <c r="J16" s="35">
-        <f>H16*I16</f>
-        <v>5.8517934683387472E-2</v>
-      </c>
-      <c r="K16" s="35">
-        <f>(I17*E16)+(J16*G16)</f>
         <v>3.919027744332912</v>
       </c>
       <c r="L16" s="35">
@@ -3828,21 +3846,21 @@
         <v>16.887049896824912</v>
       </c>
       <c r="M16" s="10">
-        <f>L16/I16</f>
+        <f t="shared" si="1"/>
         <v>20.76963089666933</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.1428360181338124</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5174687636211199</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3859,23 +3877,23 @@
         <v>2.3080235000000001E-2</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10910571135519956</v>
+      </c>
+      <c r="I17" s="35">
+        <f t="shared" si="7"/>
+        <v>0.75454658152488863</v>
+      </c>
+      <c r="J17" s="35">
+        <f t="shared" si="3"/>
+        <v>8.2325341527907048E-2</v>
+      </c>
+      <c r="K17" s="35">
         <f t="shared" si="0"/>
-        <v>0.10910571135519956</v>
-      </c>
-      <c r="I17" s="35">
-        <f t="shared" si="4"/>
-        <v>0.75454658152488863</v>
-      </c>
-      <c r="J17" s="35">
-        <f>H17*I17</f>
-        <v>8.2325341527907048E-2</v>
-      </c>
-      <c r="K17" s="35">
-        <f>(I18*E17)+(J17*G17)</f>
         <v>3.5669195538046758</v>
       </c>
       <c r="L17" s="35">
@@ -3883,21 +3901,21 @@
         <v>12.968022152492001</v>
       </c>
       <c r="M17" s="10">
-        <f>L17/I17</f>
+        <f t="shared" si="1"/>
         <v>17.186509713269771</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.96215251480922703</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4476750020919193</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>72.5</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3914,23 +3932,23 @@
         <v>3.2508632000000003E-2</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15032593384170886</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="7"/>
+        <v>0.67222123999698158</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="3"/>
+        <v>0.10105228565077774</v>
+      </c>
+      <c r="K18" s="35">
         <f t="shared" si="0"/>
-        <v>0.15032593384170886</v>
-      </c>
-      <c r="I18" s="35">
-        <f t="shared" si="4"/>
-        <v>0.67222123999698158</v>
-      </c>
-      <c r="J18" s="35">
-        <f>H18*I18</f>
-        <v>0.10105228565077774</v>
-      </c>
-      <c r="K18" s="35">
-        <f>(I19*E18)+(J18*G18)</f>
         <v>3.108475485857964</v>
       </c>
       <c r="L18" s="35">
@@ -3938,15 +3956,15 @@
         <v>9.4011025986873236</v>
       </c>
       <c r="M18" s="10">
-        <f>L18/I18</f>
+        <f t="shared" si="1"/>
         <v>13.985131738368661</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.82296608958762585</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3528310889121706</v>
       </c>
       <c r="T18" t="s">
@@ -3955,7 +3973,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>77.5</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3972,23 +3990,23 @@
         <v>5.1130363999999998E-2</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22667666856492064</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="7"/>
+        <v>0.57116895434620385</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="3"/>
+        <v>0.12947067575890672</v>
+      </c>
+      <c r="K19" s="35">
         <f t="shared" si="0"/>
-        <v>0.22667666856492064</v>
-      </c>
-      <c r="I19" s="35">
-        <f t="shared" si="4"/>
-        <v>0.57116895434620385</v>
-      </c>
-      <c r="J19" s="35">
-        <f>H19*I19</f>
-        <v>0.12947067575890672</v>
-      </c>
-      <c r="K19" s="35">
-        <f>(I20*E19)+(J19*G19)</f>
         <v>2.5321680823337522</v>
       </c>
       <c r="L19" s="35">
@@ -3996,21 +4014,21 @@
         <v>6.2926271128293596</v>
       </c>
       <c r="M19" s="10">
-        <f>L19/I19</f>
+        <f t="shared" si="1"/>
         <v>11.01710284662145</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.64459317874848587</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3077155662605344</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4027,23 +4045,23 @@
         <v>8.7876870999999995E-2</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.36024200458562006</v>
+      </c>
+      <c r="I20" s="35">
+        <f t="shared" si="7"/>
+        <v>0.44169827858729716</v>
+      </c>
+      <c r="J20" s="35">
+        <f t="shared" si="3"/>
+        <v>0.15911827330030559</v>
+      </c>
+      <c r="K20" s="35">
         <f t="shared" si="0"/>
-        <v>0.36024200458562006</v>
-      </c>
-      <c r="I20" s="35">
-        <f t="shared" si="4"/>
-        <v>0.44169827858729716</v>
-      </c>
-      <c r="J20" s="35">
-        <f>H20*I20</f>
-        <v>0.15911827330030559</v>
-      </c>
-      <c r="K20" s="35">
-        <f>(I21*E20)+(J20*G20)</f>
         <v>1.8106957096857217</v>
       </c>
       <c r="L20" s="35">
@@ -4051,15 +4069,15 @@
         <v>3.7604590304956074</v>
       </c>
       <c r="M20" s="10">
-        <f>L20/I20</f>
+        <f t="shared" si="1"/>
         <v>8.5136375050472175</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.44340564938386695</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2619617339211326</v>
       </c>
     </row>
@@ -4089,11 +4107,11 @@
         <v>1</v>
       </c>
       <c r="I21" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.28258000528699156</v>
       </c>
       <c r="J21" s="35">
-        <f>H21*I21</f>
+        <f t="shared" si="3"/>
         <v>0.28258000528699156</v>
       </c>
       <c r="K21" s="36">
@@ -4105,15 +4123,15 @@
         <v>1.9497633208098857</v>
       </c>
       <c r="M21" s="10">
-        <f>L21/I21</f>
+        <f t="shared" si="1"/>
         <v>6.899862992180509</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T21" s="26">
@@ -4223,11 +4241,11 @@
         <v>1</v>
       </c>
       <c r="J25" s="37">
-        <f>I25*H25</f>
+        <f t="shared" ref="J25:J43" si="9">I25*H25</f>
         <v>1.1026191660269666E-2</v>
       </c>
       <c r="K25" s="37">
-        <f>(I26*E25)+(J25*G25)</f>
+        <f t="shared" ref="K25:K42" si="10">(I26*E25)+(J25*G25)</f>
         <v>0.98990208437558069</v>
       </c>
       <c r="L25" s="37">
@@ -4235,7 +4253,7 @@
         <v>79.344724694453859</v>
       </c>
       <c r="M25" s="34">
-        <f>L25/I25</f>
+        <f t="shared" ref="M25:M43" si="11">L25/I25</f>
         <v>79.344724694453859</v>
       </c>
       <c r="O25">
@@ -4245,7 +4263,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <f t="shared" ref="A26:A43" si="6">D26+G26</f>
+        <f t="shared" ref="A26:A43" si="12">D26+G26</f>
         <v>2.5212916829839997</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4266,19 +4284,19 @@
         <v>1.521291682984</v>
       </c>
       <c r="H26" s="32">
-        <f t="shared" ref="H26:H43" si="7">(E26*F26)/(1 + (E26 - G26)*F26)</f>
+        <f t="shared" ref="H26:H42" si="13">(E26*F26)/(1 + (E26 - G26)*F26)</f>
         <v>1.8642917693766953E-3</v>
       </c>
       <c r="I26" s="37">
-        <f>I25-J25</f>
+        <f t="shared" ref="I26:I43" si="14">I25-J25</f>
         <v>0.98897380833973036</v>
       </c>
       <c r="J26" s="37">
-        <f>I26*H26</f>
+        <f t="shared" si="9"/>
         <v>1.8437357310168846E-3</v>
       </c>
       <c r="K26" s="37">
-        <f>(I27*E26)+(J26*G26)</f>
+        <f t="shared" si="10"/>
         <v>3.9513251502680702</v>
       </c>
       <c r="L26" s="37">
@@ -4286,17 +4304,17 @@
         <v>78.354822610078287</v>
       </c>
       <c r="M26" s="34">
-        <f>L26/I26</f>
+        <f t="shared" si="11"/>
         <v>79.228410246393494</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:O43" si="8">LOG10(H26)</f>
+        <f t="shared" ref="O26:O43" si="15">LOG10(H26)</f>
         <v>-2.7294861177791669</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4317,19 +4335,19 @@
         <v>2.5</v>
       </c>
       <c r="H27" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.0213032034270791E-3</v>
       </c>
       <c r="I27" s="37">
-        <f>I26-J26</f>
+        <f t="shared" si="14"/>
         <v>0.98713007260871344</v>
       </c>
       <c r="J27" s="37">
-        <f>I27*H27</f>
+        <f t="shared" si="9"/>
         <v>1.0081591053544843E-3</v>
       </c>
       <c r="K27" s="37">
-        <f>(I28*E27)+(J27*G27)</f>
+        <f t="shared" si="10"/>
         <v>4.9331299652801812</v>
       </c>
       <c r="L27" s="37">
@@ -4337,17 +4355,17 @@
         <v>74.403497459810211</v>
       </c>
       <c r="M27" s="34">
-        <f>L27/I27</f>
+        <f t="shared" si="11"/>
         <v>75.373549569999639</v>
       </c>
       <c r="O27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2.9908453058789148</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4364,23 +4382,23 @@
         <v>2.4332499999999999E-4</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" ref="G28:G42" si="9">G6</f>
+        <f t="shared" ref="G28:G42" si="16">G6</f>
         <v>2.5</v>
       </c>
       <c r="H28" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.215885361735889E-3</v>
       </c>
       <c r="I28" s="37">
-        <f>I27-J27</f>
+        <f t="shared" si="14"/>
         <v>0.98612191350335898</v>
       </c>
       <c r="J28" s="37">
-        <f>I28*H28</f>
+        <f t="shared" si="9"/>
         <v>1.1990111995157187E-3</v>
       </c>
       <c r="K28" s="37">
-        <f>(I29*E28)+(J28*G28)</f>
+        <f t="shared" si="10"/>
         <v>4.9276120395180056</v>
       </c>
       <c r="L28" s="37">
@@ -4388,17 +4406,17 @@
         <v>69.470367494530024</v>
       </c>
       <c r="M28" s="34">
-        <f>L28/I28</f>
+        <f t="shared" si="11"/>
         <v>70.448051648832347</v>
       </c>
       <c r="O28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2.9151073700571053</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>17.5</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4415,23 +4433,23 @@
         <v>4.0235999999999999E-4</v>
       </c>
       <c r="G29" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="32">
+        <f t="shared" si="13"/>
+        <v>2.0097783639437088E-3</v>
+      </c>
+      <c r="I29" s="37">
+        <f t="shared" si="14"/>
+        <v>0.98492290230384327</v>
+      </c>
+      <c r="J29" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H29" s="32">
-        <f t="shared" si="7"/>
-        <v>2.0097783639437088E-3</v>
-      </c>
-      <c r="I29" s="37">
-        <f>I28-J28</f>
-        <v>0.98492290230384327</v>
-      </c>
-      <c r="J29" s="37">
-        <f>I29*H29</f>
         <v>1.9794767392029076E-3</v>
       </c>
       <c r="K29" s="37">
-        <f>(I30*E29)+(J29*G29)</f>
+        <f t="shared" si="10"/>
         <v>4.9196658196712084</v>
       </c>
       <c r="L29" s="37">
@@ -4439,17 +4457,17 @@
         <v>64.542755455012028</v>
       </c>
       <c r="M29" s="34">
-        <f>L29/I29</f>
+        <f t="shared" si="11"/>
         <v>65.53076926532971</v>
       </c>
       <c r="O29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2.6968518334369769</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>22.5</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4466,23 +4484,23 @@
         <v>5.5717799999999997E-4</v>
       </c>
       <c r="G30" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="32">
+        <f t="shared" si="13"/>
+        <v>2.7820148063855193E-3</v>
+      </c>
+      <c r="I30" s="37">
+        <f t="shared" si="14"/>
+        <v>0.98294342556464032</v>
+      </c>
+      <c r="J30" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H30" s="32">
-        <f t="shared" si="7"/>
-        <v>2.7820148063855193E-3</v>
-      </c>
-      <c r="I30" s="37">
-        <f>I29-J29</f>
-        <v>0.98294342556464032</v>
-      </c>
-      <c r="J30" s="37">
-        <f>I30*H30</f>
         <v>2.7345631637601319E-3</v>
       </c>
       <c r="K30" s="37">
-        <f>(I31*E30)+(J30*G30)</f>
+        <f t="shared" si="10"/>
         <v>4.9078807199138019</v>
       </c>
       <c r="L30" s="37">
@@ -4490,17 +4508,17 @@
         <v>59.623089635340797</v>
       </c>
       <c r="M30" s="34">
-        <f>L30/I30</f>
+        <f t="shared" si="11"/>
         <v>60.657702248825778</v>
       </c>
       <c r="O30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2.5556405629441103</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>27.5</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -4517,23 +4535,23 @@
         <v>6.62266E-4</v>
       </c>
       <c r="G31" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H31" s="32">
+        <f t="shared" si="13"/>
+        <v>3.3058566089175967E-3</v>
+      </c>
+      <c r="I31" s="37">
+        <f t="shared" si="14"/>
+        <v>0.98020886240088023</v>
+      </c>
+      <c r="J31" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="32">
-        <f t="shared" si="7"/>
-        <v>3.3058566089175967E-3</v>
-      </c>
-      <c r="I31" s="37">
-        <f>I30-J30</f>
-        <v>0.98020886240088023</v>
-      </c>
-      <c r="J31" s="37">
-        <f>I31*H31</f>
         <v>3.2404299458875492E-3</v>
       </c>
       <c r="K31" s="37">
-        <f>(I32*E31)+(J31*G31)</f>
+        <f t="shared" si="10"/>
         <v>4.8929432371396819</v>
       </c>
       <c r="L31" s="37">
@@ -4541,17 +4559,17 @@
         <v>54.715208915427006</v>
       </c>
       <c r="M31" s="34">
-        <f>L31/I31</f>
+        <f t="shared" si="11"/>
         <v>55.819949211038548</v>
       </c>
       <c r="O31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2.4807159878203442</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>32.5</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4568,23 +4586,23 @@
         <v>7.8044599999999996E-4</v>
       </c>
       <c r="G32" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="32">
+        <f t="shared" si="13"/>
+        <v>3.8946311267890545E-3</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="14"/>
+        <v>0.97696843245499265</v>
+      </c>
+      <c r="J32" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H32" s="32">
-        <f t="shared" si="7"/>
-        <v>3.8946311267890545E-3</v>
-      </c>
-      <c r="I32" s="37">
-        <f>I31-J31</f>
-        <v>0.97696843245499265</v>
-      </c>
-      <c r="J32" s="37">
-        <f>I32*H32</f>
         <v>3.8049316669295243E-3</v>
       </c>
       <c r="K32" s="37">
-        <f>(I33*E32)+(J32*G32)</f>
+        <f t="shared" si="10"/>
         <v>4.8753298331076396</v>
       </c>
       <c r="L32" s="37">
@@ -4592,17 +4610,17 @@
         <v>49.822265678287323</v>
       </c>
       <c r="M32" s="34">
-        <f>L32/I32</f>
+        <f t="shared" si="11"/>
         <v>50.99680196737836</v>
       </c>
       <c r="O32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2.4095336694898273</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>37.5</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4619,23 +4637,23 @@
         <v>1.1227419999999999E-3</v>
       </c>
       <c r="G33" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H33" s="32">
+        <f t="shared" si="13"/>
+        <v>5.5979972334752335E-3</v>
+      </c>
+      <c r="I33" s="37">
+        <f t="shared" si="14"/>
+        <v>0.97316350078806313</v>
+      </c>
+      <c r="J33" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H33" s="32">
-        <f t="shared" si="7"/>
-        <v>5.5979972334752335E-3</v>
-      </c>
-      <c r="I33" s="37">
-        <f>I32-J32</f>
-        <v>0.97316350078806313</v>
-      </c>
-      <c r="J33" s="37">
-        <f>I33*H33</f>
         <v>5.4477665851306502E-3</v>
       </c>
       <c r="K33" s="37">
-        <f>(I34*E33)+(J33*G33)</f>
+        <f t="shared" si="10"/>
         <v>4.8521980874774888</v>
       </c>
       <c r="L33" s="37">
@@ -4643,17 +4661,17 @@
         <v>44.946935845179674</v>
       </c>
       <c r="M33" s="34">
-        <f>L33/I33</f>
+        <f t="shared" si="11"/>
         <v>46.186417604833991</v>
       </c>
       <c r="O33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2.2519673204977124</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>42.5</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4670,23 +4688,23 @@
         <v>1.68359E-3</v>
       </c>
       <c r="G34" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H34" s="32">
+        <f t="shared" si="13"/>
+        <v>8.3826675617990759E-3</v>
+      </c>
+      <c r="I34" s="37">
+        <f t="shared" si="14"/>
+        <v>0.96771573420293244</v>
+      </c>
+      <c r="J34" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H34" s="32">
-        <f t="shared" si="7"/>
-        <v>8.3826675617990759E-3</v>
-      </c>
-      <c r="I34" s="37">
-        <f>I33-J33</f>
-        <v>0.96771573420293244</v>
-      </c>
-      <c r="J34" s="37">
-        <f>I34*H34</f>
         <v>8.1120392941454976E-3</v>
       </c>
       <c r="K34" s="37">
-        <f>(I35*E34)+(J34*G34)</f>
+        <f t="shared" si="10"/>
         <v>4.8182985727792982</v>
       </c>
       <c r="L34" s="37">
@@ -4694,17 +4712,17 @@
         <v>40.094737757702191</v>
       </c>
       <c r="M34" s="34">
-        <f>L34/I34</f>
+        <f t="shared" si="11"/>
         <v>41.432350782977167</v>
       </c>
       <c r="O34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-2.0766177566659305</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.5</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4721,23 +4739,23 @@
         <v>2.4555380000000002E-3</v>
       </c>
       <c r="G35" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H35" s="32">
+        <f t="shared" si="13"/>
+        <v>1.220277903095969E-2</v>
+      </c>
+      <c r="I35" s="37">
+        <f t="shared" si="14"/>
+        <v>0.95960369490878694</v>
+      </c>
+      <c r="J35" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H35" s="32">
-        <f t="shared" si="7"/>
-        <v>1.220277903095969E-2</v>
-      </c>
-      <c r="I35" s="37">
-        <f>I34-J34</f>
-        <v>0.95960369490878694</v>
-      </c>
-      <c r="J35" s="37">
-        <f>I35*H35</f>
         <v>1.1709831846264385E-2</v>
       </c>
       <c r="K35" s="37">
-        <f>(I36*E35)+(J35*G35)</f>
+        <f t="shared" si="10"/>
         <v>4.7687438949282743</v>
       </c>
       <c r="L35" s="37">
@@ -4745,17 +4763,17 @@
         <v>35.276439184922893</v>
       </c>
       <c r="M35" s="34">
-        <f>L35/I35</f>
+        <f t="shared" si="11"/>
         <v>36.761466605519914</v>
       </c>
       <c r="O35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1.9135412529014693</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>52.5</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4772,23 +4790,23 @@
         <v>4.0259759999999997E-3</v>
       </c>
       <c r="G36" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H36" s="32">
+        <f t="shared" si="13"/>
+        <v>1.9929292863090566E-2</v>
+      </c>
+      <c r="I36" s="37">
+        <f t="shared" si="14"/>
+        <v>0.94789386306252255</v>
+      </c>
+      <c r="J36" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H36" s="32">
-        <f t="shared" si="7"/>
-        <v>1.9929292863090566E-2</v>
-      </c>
-      <c r="I36" s="37">
-        <f>I35-J35</f>
-        <v>0.94789386306252255</v>
-      </c>
-      <c r="J36" s="37">
-        <f>I36*H36</f>
         <v>1.8890854400099275E-2</v>
       </c>
       <c r="K36" s="37">
-        <f>(I37*E36)+(J36*G36)</f>
+        <f t="shared" si="10"/>
         <v>4.6922421793123643</v>
       </c>
       <c r="L36" s="37">
@@ -4796,17 +4814,17 @@
         <v>30.507695289994615</v>
       </c>
       <c r="M36" s="34">
-        <f>L36/I36</f>
+        <f t="shared" si="11"/>
         <v>32.184716537174523</v>
       </c>
       <c r="O36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1.7005081107880251</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>57.5</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4823,23 +4841,23 @@
         <v>6.3203080000000002E-3</v>
       </c>
       <c r="G37" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H37" s="32">
+        <f t="shared" si="13"/>
+        <v>3.1109978386805119E-2</v>
+      </c>
+      <c r="I37" s="37">
+        <f t="shared" si="14"/>
+        <v>0.92900300866242325</v>
+      </c>
+      <c r="J37" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H37" s="32">
-        <f t="shared" si="7"/>
-        <v>3.1109978386805119E-2</v>
-      </c>
-      <c r="I37" s="37">
-        <f>I36-J36</f>
-        <v>0.92900300866242325</v>
-      </c>
-      <c r="J37" s="37">
-        <f>I37*H37</f>
         <v>2.8901263520764917E-2</v>
       </c>
       <c r="K37" s="37">
-        <f>(I38*E37)+(J37*G37)</f>
+        <f t="shared" si="10"/>
         <v>4.5727618845102036</v>
       </c>
       <c r="L37" s="37">
@@ -4847,17 +4865,17 @@
         <v>25.815453110682249</v>
       </c>
       <c r="M37" s="34">
-        <f>L37/I37</f>
+        <f t="shared" si="11"/>
         <v>27.788341770659375</v>
       </c>
       <c r="O37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1.5071002906108251</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>62.5</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4874,23 +4892,23 @@
         <v>9.7162210000000006E-3</v>
       </c>
       <c r="G38" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H38" s="32">
+        <f t="shared" si="13"/>
+        <v>4.7429027712329708E-2</v>
+      </c>
+      <c r="I38" s="37">
+        <f t="shared" si="14"/>
+        <v>0.9001017451416583</v>
+      </c>
+      <c r="J38" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H38" s="32">
-        <f t="shared" si="7"/>
-        <v>4.7429027712329708E-2</v>
-      </c>
-      <c r="I38" s="37">
-        <f>I37-J37</f>
-        <v>0.9001017451416583</v>
-      </c>
-      <c r="J38" s="37">
-        <f>I38*H38</f>
         <v>4.2690950614240046E-2</v>
       </c>
       <c r="K38" s="37">
-        <f>(I39*E38)+(J38*G38)</f>
+        <f t="shared" si="10"/>
         <v>4.3937813491726914</v>
       </c>
       <c r="L38" s="37">
@@ -4898,17 +4916,17 @@
         <v>21.242691226172049</v>
       </c>
       <c r="M38" s="34">
-        <f>L38/I38</f>
+        <f t="shared" si="11"/>
         <v>23.600322231159399</v>
       </c>
       <c r="O38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1.3239557782260143</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>67.5</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4925,23 +4943,23 @@
         <v>1.5663481E-2</v>
       </c>
       <c r="G39" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H39" s="32">
+        <f t="shared" si="13"/>
+        <v>7.536616381269251E-2</v>
+      </c>
+      <c r="I39" s="37">
+        <f t="shared" si="14"/>
+        <v>0.85741079452741831</v>
+      </c>
+      <c r="J39" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H39" s="32">
-        <f t="shared" si="7"/>
-        <v>7.536616381269251E-2</v>
-      </c>
-      <c r="I39" s="37">
-        <f>I38-J38</f>
-        <v>0.85741079452741831</v>
-      </c>
-      <c r="J39" s="37">
-        <f>I39*H39</f>
         <v>6.461976239512425E-2</v>
       </c>
       <c r="K39" s="37">
-        <f>(I40*E39)+(J39*G39)</f>
+        <f t="shared" si="10"/>
         <v>4.1255045666492807</v>
       </c>
       <c r="L39" s="37">
@@ -4949,17 +4967,17 @@
         <v>16.848909876999357</v>
       </c>
       <c r="M39" s="34">
-        <f>L39/I39</f>
+        <f t="shared" si="11"/>
         <v>19.65091877142277</v>
       </c>
       <c r="O39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-1.1228235900403982</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>72.5</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4976,23 +4994,23 @@
         <v>2.3531296E-2</v>
       </c>
       <c r="G40" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H40" s="32">
+        <f t="shared" si="13"/>
+        <v>0.11111951453051537</v>
+      </c>
+      <c r="I40" s="37">
+        <f t="shared" si="14"/>
+        <v>0.79279103213229407</v>
+      </c>
+      <c r="J40" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H40" s="32">
-        <f t="shared" si="7"/>
-        <v>0.11111951453051537</v>
-      </c>
-      <c r="I40" s="37">
-        <f>I39-J39</f>
-        <v>0.79279103213229407</v>
-      </c>
-      <c r="J40" s="37">
-        <f>I40*H40</f>
         <v>8.8094554614686724E-2</v>
       </c>
       <c r="K40" s="37">
-        <f>(I41*E40)+(J40*G40)</f>
+        <f t="shared" si="10"/>
         <v>3.7437187741247535</v>
       </c>
       <c r="L40" s="37">
@@ -5000,17 +5018,17 @@
         <v>12.723405310350078</v>
       </c>
       <c r="M40" s="34">
-        <f>L40/I40</f>
+        <f t="shared" si="11"/>
         <v>16.048876431068038</v>
       </c>
       <c r="O40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-0.95420966465326007</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>77.5</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -5027,23 +5045,23 @@
         <v>3.7957299E-2</v>
       </c>
       <c r="G41" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H41" s="32">
+        <f t="shared" si="13"/>
+        <v>0.17333789886214457</v>
+      </c>
+      <c r="I41" s="37">
+        <f t="shared" si="14"/>
+        <v>0.70469647751760733</v>
+      </c>
+      <c r="J41" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H41" s="32">
-        <f t="shared" si="7"/>
-        <v>0.17333789886214457</v>
-      </c>
-      <c r="I41" s="37">
-        <f>I40-J40</f>
-        <v>0.70469647751760733</v>
-      </c>
-      <c r="J41" s="37">
-        <f>I41*H41</f>
         <v>0.12215060674845656</v>
       </c>
       <c r="K41" s="37">
-        <f>(I42*E41)+(J41*G41)</f>
+        <f t="shared" si="10"/>
         <v>3.218105870716895</v>
       </c>
       <c r="L41" s="37">
@@ -5051,17 +5069,17 @@
         <v>8.9796865362253229</v>
       </c>
       <c r="M41" s="34">
-        <f>L41/I41</f>
+        <f t="shared" si="11"/>
         <v>12.742630086441661</v>
       </c>
       <c r="O41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-0.76110647209722504</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>82.5</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -5078,23 +5096,23 @@
         <v>6.6597974000000004E-2</v>
       </c>
       <c r="G42" s="33">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="H42" s="32">
+        <f t="shared" si="13"/>
+        <v>0.28546190815650652</v>
+      </c>
+      <c r="I42" s="37">
+        <f t="shared" si="14"/>
+        <v>0.58254587076915076</v>
+      </c>
+      <c r="J42" s="37">
         <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="H42" s="32">
-        <f t="shared" si="7"/>
-        <v>0.28546190815650652</v>
-      </c>
-      <c r="I42" s="37">
-        <f>I41-J41</f>
-        <v>0.58254587076915076</v>
-      </c>
-      <c r="J42" s="37">
-        <f>I42*H42</f>
         <v>0.16629465585845543</v>
       </c>
       <c r="K42" s="37">
-        <f>(I43*E42)+(J42*G42)</f>
+        <f t="shared" si="10"/>
         <v>2.4969927141996151</v>
       </c>
       <c r="L42" s="37">
@@ -5102,17 +5120,17 @@
         <v>5.7615806655084292</v>
       </c>
       <c r="M42" s="34">
-        <f>L42/I42</f>
+        <f t="shared" si="11"/>
         <v>9.8903467599920702</v>
       </c>
       <c r="O42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-0.544451835513174</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>92.842831046172961</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -5136,11 +5154,11 @@
         <v>1</v>
       </c>
       <c r="I43" s="37">
-        <f>I42-J42</f>
+        <f t="shared" si="14"/>
         <v>0.41625121491069533</v>
       </c>
       <c r="J43" s="37">
-        <f>I43*H43</f>
+        <f t="shared" si="9"/>
         <v>0.41625121491069533</v>
       </c>
       <c r="K43" s="37">
@@ -5152,11 +5170,11 @@
         <v>3.2645879513088136</v>
       </c>
       <c r="M43" s="34">
-        <f>L43/I43</f>
+        <f t="shared" si="11"/>
         <v>7.8428310461729582</v>
       </c>
       <c r="O43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5164,4 +5182,709 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDC40CC-4D66-4F03-972C-01696B0E52C7}">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>400</v>
+      </c>
+      <c r="D5" s="39">
+        <f>-F5/(F5*C5-F5*E5-C5)</f>
+        <v>4.9868825764429164E-5</v>
+      </c>
+      <c r="E5" s="13">
+        <f>1/9*C5</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="41">
+        <f>G5*F5</f>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" ref="I5:I10" si="0">(G6*C5)+(H5*E5)</f>
+        <v>393031.11111111112</v>
+      </c>
+      <c r="J5" s="41">
+        <f>SUM(I5:I$9)</f>
+        <v>656711.33110847475</v>
+      </c>
+      <c r="K5" s="10">
+        <f>J5/G5</f>
+        <v>656.71133110847472</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="38">
+        <v>400</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="3">
+        <f>-F6/(F6*C6-F6*E6-C6)</f>
+        <v>2.2056539297918608E-3</v>
+      </c>
+      <c r="E6" s="13">
+        <f>9/20*C6</f>
+        <v>90</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G6" s="41">
+        <f>G5-(G5*F5)</f>
+        <v>980.4</v>
+      </c>
+      <c r="H6" s="41">
+        <f>F6*G6</f>
+        <v>348.04199999999997</v>
+      </c>
+      <c r="I6" s="41">
+        <f>(G7*C6)+(H6*E6)</f>
+        <v>157795.38</v>
+      </c>
+      <c r="J6" s="41">
+        <f>SUM(I6:I$21)</f>
+        <v>263680.21999736357</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" ref="K5:K10" si="1">J6/G6</f>
+        <v>268.95167278392859</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="38">
+        <v>600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D9" si="2">-F7/(F7*C7-F7*E7-C7)</f>
+        <v>4.5761970701843884E-3</v>
+      </c>
+      <c r="E7" s="13">
+        <f>0.5*C7</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="G7" s="41">
+        <f t="shared" ref="G7:G10" si="3">G6-H6</f>
+        <v>632.35799999999995</v>
+      </c>
+      <c r="H7" s="41">
+        <f t="shared" ref="H6:H10" si="4">F7*G7</f>
+        <v>397.0575882</v>
+      </c>
+      <c r="I7" s="41">
+        <f t="shared" si="0"/>
+        <v>86765.841179999989</v>
+      </c>
+      <c r="J7" s="41">
+        <f>SUM(I7:I$21)</f>
+        <v>105884.83999736355</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="1"/>
+        <v>167.44445392857142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="38">
+        <v>800</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0966942788573197E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <f>0.5*C8</f>
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="G8" s="41">
+        <f t="shared" si="3"/>
+        <v>235.30041179999995</v>
+      </c>
+      <c r="H8" s="41">
+        <f t="shared" si="4"/>
+        <v>166.66328167793998</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" si="0"/>
+        <v>15196.877096102997</v>
+      </c>
+      <c r="J8" s="41">
+        <f>SUM(I8:I$21)</f>
+        <v>19118.998817363565</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>81.253571428571419</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="15">
+        <v>900</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E9" s="29">
+        <f>4/7*C9</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="41">
+        <f t="shared" si="3"/>
+        <v>68.637130122059972</v>
+      </c>
+      <c r="H9" s="41">
+        <f t="shared" si="4"/>
+        <v>68.637130122059972</v>
+      </c>
+      <c r="I9" s="40">
+        <f>G9/D9</f>
+        <v>3922.1217212605693</v>
+      </c>
+      <c r="J9" s="41">
+        <f>SUM(I9:I$21)</f>
+        <v>3922.1217212605693</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="1"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDDEA51-A305-42D2-BB66-0FE5DFC69269}">
+  <dimension ref="B2:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="151" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>400</v>
+      </c>
+      <c r="D4" s="39">
+        <f>-F4/(F4*C4-F4*E4-C4)</f>
+        <v>4.9868825764429164E-5</v>
+      </c>
+      <c r="E4" s="13">
+        <f>1/9*C4</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="41">
+        <f>G4*F4</f>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="I4" s="41">
+        <f t="shared" ref="I4:I7" si="0">(G5*C4)+(H4*E4)</f>
+        <v>393031.11111111112</v>
+      </c>
+      <c r="J4" s="41">
+        <f>SUM(I4:I$9)</f>
+        <v>656711.33110847475</v>
+      </c>
+      <c r="K4" s="10">
+        <f>J4/G4</f>
+        <v>656.71133110847472</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="38">
+        <v>400</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="3">
+        <f>-F5/(F5*C5-F5*E5-C5)</f>
+        <v>2.2056539297918608E-3</v>
+      </c>
+      <c r="E5" s="13">
+        <f>9/20*C5</f>
+        <v>90</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G5" s="41">
+        <f>G4-(G4*F4)</f>
+        <v>980.4</v>
+      </c>
+      <c r="H5" s="41">
+        <f>F5*G5</f>
+        <v>348.04199999999997</v>
+      </c>
+      <c r="I5" s="41">
+        <f>(G6*C5)+(H5*E5)</f>
+        <v>157795.38</v>
+      </c>
+      <c r="J5" s="41">
+        <f>SUM(I5:I$21)</f>
+        <v>263680.21999736357</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" ref="K5:K8" si="1">J5/G5</f>
+        <v>268.95167278392859</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="38">
+        <v>600</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D8" si="2">-F6/(F6*C6-F6*E6-C6)</f>
+        <v>4.5761970701843884E-3</v>
+      </c>
+      <c r="E6" s="13">
+        <f>0.5*C6</f>
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="G6" s="41">
+        <f t="shared" ref="G6:G8" si="3">G5-H5</f>
+        <v>632.35799999999995</v>
+      </c>
+      <c r="H6" s="41">
+        <f t="shared" ref="H6:H8" si="4">F6*G6</f>
+        <v>397.0575882</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" si="0"/>
+        <v>86765.841179999989</v>
+      </c>
+      <c r="J6" s="41">
+        <f>SUM(I6:I$21)</f>
+        <v>105884.83999736355</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="1"/>
+        <v>167.44445392857142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="38">
+        <v>800</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0966942788573197E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <f>0.5*C7</f>
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="G7" s="41">
+        <f t="shared" si="3"/>
+        <v>235.30041179999995</v>
+      </c>
+      <c r="H7" s="41">
+        <f t="shared" si="4"/>
+        <v>166.66328167793998</v>
+      </c>
+      <c r="I7" s="41">
+        <f t="shared" si="0"/>
+        <v>15196.877096102997</v>
+      </c>
+      <c r="J7" s="41">
+        <f>SUM(I7:I$21)</f>
+        <v>19118.998817363565</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="1"/>
+        <v>81.253571428571419</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="15">
+        <v>900</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E8" s="29">
+        <f>4/7*C8</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="41">
+        <f t="shared" si="3"/>
+        <v>68.637130122059972</v>
+      </c>
+      <c r="H8" s="41">
+        <f t="shared" si="4"/>
+        <v>68.637130122059972</v>
+      </c>
+      <c r="I8" s="40">
+        <f>G8/D8</f>
+        <v>3922.1217212605693</v>
+      </c>
+      <c r="J8" s="41">
+        <f>SUM(I8:I$21)</f>
+        <v>3922.1217212605693</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>400</v>
+      </c>
+      <c r="D15" s="39">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E15" s="41">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <f>E15*D15</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="38">
+        <v>400</v>
+      </c>
+      <c r="C16" s="2">
+        <v>200</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.0100000000000001E-3</v>
+      </c>
+      <c r="E16" s="41">
+        <v>980.4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F19" si="5">D16/E16*1000</f>
+        <v>2.0501835985312121E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="38">
+        <v>600</v>
+      </c>
+      <c r="C17" s="2">
+        <v>200</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="E17" s="41">
+        <v>632.35799999999995</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>7.1952912748791042E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="38">
+        <v>800</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.094E-2</v>
+      </c>
+      <c r="E18" s="41">
+        <v>235.30041179999995</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>4.6493756285045318E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="15">
+        <v>900</v>
+      </c>
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E19" s="41">
+        <v>68.637130122059972</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>0.4516505854028503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>